--- a/Daily/Forecast/Stationaritiy/Square Percentage Return/keyence.xlsx
+++ b/Daily/Forecast/Stationaritiy/Square Percentage Return/keyence.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>0.09837599405975783</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-75.32206007117257</v>
+        <v>-75.45590543972837</v>
       </c>
       <c r="E2">
-        <v>75.51881205929207</v>
+        <v>75.45590543972837</v>
       </c>
       <c r="F2">
         <v>-28.48783575792453</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>0.7283137652510092</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-74.68558333428263</v>
+        <v>-75.44929949164751</v>
       </c>
       <c r="E3">
-        <v>76.14221086478463</v>
+        <v>75.44929949164751</v>
       </c>
       <c r="F3">
         <v>-8.61129940609402</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>-0.08826086445866022</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-75.48842876295993</v>
+        <v>-75.43543484695321</v>
       </c>
       <c r="E4">
-        <v>75.3119070340426</v>
+        <v>75.43543484695321</v>
       </c>
       <c r="F4">
         <v>1.596969603042453</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.004153143172929474</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-75.38976916055377</v>
+        <v>-75.42087320203927</v>
       </c>
       <c r="E5">
-        <v>75.38146287420791</v>
+        <v>75.42087320203927</v>
       </c>
       <c r="F5">
         <v>-33.43326982925277</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.9058052463638582</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-74.47624809583681</v>
+        <v>-75.41730025145107</v>
       </c>
       <c r="E6">
-        <v>76.28785858856452</v>
+        <v>75.41730025145107</v>
       </c>
       <c r="F6">
         <v>-28.97831345811852</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>0.3724809269257428</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-75.00379509793501</v>
+        <v>-75.41099346518028</v>
       </c>
       <c r="E7">
-        <v>75.7487569517865</v>
+        <v>75.41099346518028</v>
       </c>
       <c r="F7">
         <v>-2.621688937155398</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>-0.09742174876665732</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-75.45922955204344</v>
+        <v>-75.39649596212794</v>
       </c>
       <c r="E8">
-        <v>75.26438605451011</v>
+        <v>75.39649596212794</v>
       </c>
       <c r="F8">
         <v>-29.68943000055191</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.8386641298937167</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-74.51721137129505</v>
+        <v>-75.39061074061104</v>
       </c>
       <c r="E9">
-        <v>76.19453963108248</v>
+        <v>75.39061074061104</v>
       </c>
       <c r="F9">
         <v>61.61308947819748</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>-2.052473190248694</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-77.43013578283367</v>
+        <v>-75.41338749504526</v>
       </c>
       <c r="E10">
-        <v>73.32518940233629</v>
+        <v>75.41338749504526</v>
       </c>
       <c r="F10">
         <v>-10.37831636535458</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>1.190220841967675</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-74.17357937952303</v>
+        <v>-75.3998973594511</v>
       </c>
       <c r="E11">
-        <v>76.55402106345838</v>
+        <v>75.3998973594511</v>
       </c>
       <c r="F11">
         <v>-21.8732519877463</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>0.08468843444070018</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-75.26980656946878</v>
+        <v>-75.39005800173599</v>
       </c>
       <c r="E12">
-        <v>75.4391834383502</v>
+        <v>75.39005800173599</v>
       </c>
       <c r="F12">
         <v>57.36590448681937</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>-1.640098522365395</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-77.01229388617223</v>
+        <v>-75.40784684330828</v>
       </c>
       <c r="E13">
-        <v>73.73209684144145</v>
+        <v>75.40784684330828</v>
       </c>
       <c r="F13">
         <v>-37.11824801067536</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>1.726346336039954</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-73.64367933463733</v>
+        <v>-75.4068413247161</v>
       </c>
       <c r="E14">
-        <v>77.09637200671723</v>
+        <v>75.4068413247161</v>
       </c>
       <c r="F14">
         <v>-1.952141439804223</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>-0.6486646009502208</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-76.00430412767292</v>
+        <v>-75.39235366616329</v>
       </c>
       <c r="E15">
-        <v>74.70697492577247</v>
+        <v>75.39235366616329</v>
       </c>
       <c r="F15">
         <v>-45.33487423883003</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>1.554030041064056</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-73.80668483768494</v>
+        <v>-75.39800083205601</v>
       </c>
       <c r="E16">
-        <v>76.91474491981305</v>
+        <v>75.39800083205601</v>
       </c>
       <c r="F16">
         <v>-35.40291800915867</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>0.3467490110944009</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-75.0128578232149</v>
+        <v>-75.39578028783566</v>
       </c>
       <c r="E17">
-        <v>75.70635584540371</v>
+        <v>75.39578028783566</v>
       </c>
       <c r="F17">
         <v>-19.59109320087862</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>0.4000383211690401</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-74.94896250867338</v>
+        <v>-75.38503699230603</v>
       </c>
       <c r="E18">
-        <v>75.74903915101144</v>
+        <v>75.38503699230603</v>
       </c>
       <c r="F18">
         <v>13.52792590379579</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>-0.5434753028571713</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-75.87967376263653</v>
+        <v>-75.37233223603793</v>
       </c>
       <c r="E19">
-        <v>74.79272315692218</v>
+        <v>75.37233223603793</v>
       </c>
       <c r="F19">
         <v>-14.88485648550153</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>0.6429122909598757</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-74.68081814084434</v>
+        <v>-75.36001291938136</v>
       </c>
       <c r="E20">
-        <v>75.96664272276408</v>
+        <v>75.36001291938136</v>
       </c>
       <c r="F20">
         <v>42.05122495306171</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>-1.442296922442416</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-76.76835322610006</v>
+        <v>-75.36285342217913</v>
       </c>
       <c r="E21">
-        <v>73.88375938121524</v>
+        <v>75.36285342217913</v>
       </c>
       <c r="F21">
         <v>3.332996887576201</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>0.5201009249112538</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-74.79170926527229</v>
+        <v>-75.34848467206442</v>
       </c>
       <c r="E22">
-        <v>75.83191111509478</v>
+        <v>75.34848467206442</v>
       </c>
       <c r="F22">
         <v>27.16033534941147</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>-0.9843486089466094</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-76.28864139583041</v>
+        <v>-75.34123814631809</v>
       </c>
       <c r="E23">
-        <v>74.3199441779372</v>
+        <v>75.34123814631809</v>
       </c>
       <c r="F23">
         <v>16.08701569820141</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>-0.02705516941294572</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-75.31974756432844</v>
+        <v>-75.32930906351757</v>
       </c>
       <c r="E24">
-        <v>75.26563722550254</v>
+        <v>75.32930906351757</v>
       </c>
       <c r="F24">
         <v>-49.25002587554843</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>1.392538312298267</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-73.90942539636835</v>
+        <v>-75.33858866025416</v>
       </c>
       <c r="E25">
-        <v>76.69450202096489</v>
+        <v>75.33858866025416</v>
       </c>
       <c r="F25">
         <v>-7.691630340940492</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>-0.3678237586942918</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-75.65614948172627</v>
+        <v>-75.32471667098041</v>
       </c>
       <c r="E26">
-        <v>74.9205019643377</v>
+        <v>75.32471667098041</v>
       </c>
       <c r="F26">
         <v>12.69488381645232</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>-0.2000931593561486</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-75.47565421403885</v>
+        <v>-75.31185025990769</v>
       </c>
       <c r="E27">
-        <v>75.07546789532657</v>
+        <v>75.31185025990769</v>
       </c>
       <c r="F27">
         <v>-14.70538952099645</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>0.4953550531389173</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-74.76784200900882</v>
+        <v>-75.29953012986763</v>
       </c>
       <c r="E28">
-        <v>75.75855211528666</v>
+        <v>75.29953012986763</v>
       </c>
       <c r="F28">
         <v>1.340521181647603</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.2399575693127789</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-75.48874707210321</v>
+        <v>-75.28512111682005</v>
       </c>
       <c r="E29">
-        <v>75.00883193347765</v>
+        <v>75.28512111682005</v>
       </c>
       <c r="F29">
         <v>9.36308629090945</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.1591223405503177</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-75.39439259008529</v>
+        <v>-75.27155963358534</v>
       </c>
       <c r="E30">
-        <v>75.07614790898467</v>
+        <v>75.27155963358534</v>
       </c>
       <c r="F30">
         <v>4.001782048439395</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>-0.04476585787003118</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-75.26580263862314</v>
+        <v>-75.25730593960429</v>
       </c>
       <c r="E31">
-        <v>75.17627092288308</v>
+        <v>75.25730593960429</v>
       </c>
       <c r="F31">
         <v>-98.94433442370882</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>2.772743062564231</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-72.52944101168343</v>
+        <v>-75.33848758483208</v>
       </c>
       <c r="E32">
-        <v>78.07492713681189</v>
+        <v>75.33848758483208</v>
       </c>
       <c r="F32">
         <v>-79.00202993870664</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.8505781738316074</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-74.50230468149819</v>
+        <v>-75.38493729689576</v>
       </c>
       <c r="E33">
-        <v>76.2034610291614</v>
+        <v>75.38493729689576</v>
       </c>
       <c r="F33">
         <v>18.57016330104102</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>-0.8896551185259369</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-76.23113795851172</v>
+        <v>-75.37388268001793</v>
       </c>
       <c r="E34">
-        <v>74.45182772145985</v>
+        <v>75.37388268001793</v>
       </c>
       <c r="F34">
         <v>-9.267314689600425</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>0.6227193638026645</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-74.70504690897934</v>
+        <v>-75.36031176113653</v>
       </c>
       <c r="E35">
-        <v>75.95048563658466</v>
+        <v>75.36031176113653</v>
       </c>
       <c r="F35">
         <v>-8.585976827038166</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>-0.03750067208477414</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-75.35170028416273</v>
+        <v>-75.34663027846733</v>
       </c>
       <c r="E36">
-        <v>75.27669893999318</v>
+        <v>75.34663027846733</v>
       </c>
       <c r="F36">
         <v>-20.51435996995963</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.5540186802330318</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-74.74987834228008</v>
+        <v>-75.33633739343642</v>
       </c>
       <c r="E37">
-        <v>75.85791570274614</v>
+        <v>75.33633739343642</v>
       </c>
       <c r="F37">
         <v>-19.23181333743287</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>0.2658951025312106</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-75.0274375465653</v>
+        <v>-75.3255546327551</v>
       </c>
       <c r="E38">
-        <v>75.5592277516277</v>
+        <v>75.3255546327551</v>
       </c>
       <c r="F38">
         <v>-16.0828725349802</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.3058447252184342</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-74.97571879429482</v>
+        <v>-75.31369607188408</v>
       </c>
       <c r="E39">
-        <v>75.58740824473169</v>
+        <v>75.31369607188408</v>
       </c>
       <c r="F39">
         <v>17.53966877913484</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>-0.588107956831001</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-75.85820117942492</v>
+        <v>-75.30232138612716</v>
       </c>
       <c r="E40">
-        <v>74.68198526576293</v>
+        <v>75.30232138612716</v>
       </c>
       <c r="F40">
         <v>-37.42493033310552</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>1.235179844278306</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-74.03376482303794</v>
+        <v>-75.30158750621892</v>
       </c>
       <c r="E41">
-        <v>76.50412451159455</v>
+        <v>75.30158750621892</v>
       </c>
       <c r="F41">
         <v>12.17151186367147</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>-0.8505490974105783</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-76.10630765037095</v>
+        <v>-75.28867298694311</v>
       </c>
       <c r="E42">
-        <v>74.40520945554979</v>
+        <v>75.28867298694311</v>
       </c>
       <c r="F42">
         <v>-13.28105584507284</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>0.7179372312956582</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-74.52498044955682</v>
+        <v>-75.2760407219168</v>
       </c>
       <c r="E43">
-        <v>75.96085491214815</v>
+        <v>75.2760407219168</v>
       </c>
       <c r="F43">
         <v>0.3699045538724022</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>-0.3188734473141062</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-75.54745916167768</v>
+        <v>-75.26170239296029</v>
       </c>
       <c r="E44">
-        <v>74.90971226704947</v>
+        <v>75.26170239296029</v>
       </c>
       <c r="F44">
         <v>16.22005512994775</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.2946308435608156</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-75.51155323688876</v>
+        <v>-75.24992829399957</v>
       </c>
       <c r="E45">
-        <v>74.92229154976714</v>
+        <v>75.24992829399957</v>
       </c>
       <c r="F45">
         <v>-24.74220779036642</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>0.7823712518639763</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-74.42604617877393</v>
+        <v>-75.24155372090154</v>
       </c>
       <c r="E46">
-        <v>75.99078868250189</v>
+        <v>75.24155372090154</v>
       </c>
       <c r="F46">
         <v>26.57853460859769</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>-1.039217930268993</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-76.2397920104649</v>
+        <v>-75.23410015167077</v>
       </c>
       <c r="E47">
-        <v>74.16135614992692</v>
+        <v>75.23410015167077</v>
       </c>
       <c r="F47">
         <v>43.65916765276836</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.7155934781109892</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-75.92127293197878</v>
+        <v>-75.23830244142768</v>
       </c>
       <c r="E48">
-        <v>74.4900859757568</v>
+        <v>75.23830244142768</v>
       </c>
       <c r="F48">
         <v>14.37998781629375</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.07608265769010369</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-75.26967472998761</v>
+        <v>-75.22600484040731</v>
       </c>
       <c r="E49">
-        <v>75.1175094146074</v>
+        <v>75.22600484040731</v>
       </c>
       <c r="F49">
         <v>-41.2099923606192</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>1.113811484346741</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-74.08191913647336</v>
+        <v>-75.22819028463697</v>
       </c>
       <c r="E50">
-        <v>76.30954210516684</v>
+        <v>75.22819028463697</v>
       </c>
       <c r="F50">
         <v>44.79170542178252</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>-1.665878471869124</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-76.86583199228826</v>
+        <v>-75.23336208485692</v>
       </c>
       <c r="E51">
-        <v>73.53407504855002</v>
+        <v>75.23336208485692</v>
       </c>
       <c r="F51">
         <v>-32.79025489209459</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>1.594956829684051</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-73.60010319469717</v>
+        <v>-75.229501186096</v>
       </c>
       <c r="E52">
-        <v>76.79001685406527</v>
+        <v>75.229501186096</v>
       </c>
       <c r="F52">
         <v>11.58126875501466</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>-0.9921138898929778</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-76.17386262892379</v>
+        <v>-75.21651973993512</v>
       </c>
       <c r="E53">
-        <v>74.18963484913783</v>
+        <v>75.21651973993512</v>
       </c>
       <c r="F53">
         <v>-18.847774053026</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.9456633661858911</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-74.22490293382361</v>
+        <v>-75.20568914908527</v>
       </c>
       <c r="E54">
-        <v>76.11622966619541</v>
+        <v>75.20568914908527</v>
       </c>
       <c r="F54">
         <v>2.909218301522287</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>-0.483748445527469</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-75.64009244541012</v>
+        <v>-75.19150470057134</v>
       </c>
       <c r="E55">
-        <v>74.67259555435518</v>
+        <v>75.19150470057134</v>
       </c>
       <c r="F55">
         <v>-14.21556320022432</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>0.5972367490785562</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-74.54668139813712</v>
+        <v>-75.17920431151082</v>
       </c>
       <c r="E56">
-        <v>75.74115489629425</v>
+        <v>75.17920431151082</v>
       </c>
       <c r="F56">
         <v>10.57849403066626</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>-0.5471946556276048</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-75.67783314669194</v>
+        <v>-75.16603769836088</v>
       </c>
       <c r="E57">
-        <v>74.58344383543673</v>
+        <v>75.16603769836088</v>
       </c>
       <c r="F57">
         <v>7.994356166047112</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>0.01698771874212168</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-75.10012231579802</v>
+        <v>-75.1524139310947</v>
       </c>
       <c r="E58">
-        <v>75.13409775328225</v>
+        <v>75.1524139310947</v>
       </c>
       <c r="F58">
         <v>-29.93224251590192</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>0.8132962871474572</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-74.29827650193876</v>
+        <v>-75.14685420142837</v>
       </c>
       <c r="E59">
-        <v>75.92486907623366</v>
+        <v>75.14685420142837</v>
       </c>
       <c r="F59">
         <v>-34.02920329172616</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>0.5744981355927994</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-74.53460219663661</v>
+        <v>-75.14383461310659</v>
       </c>
       <c r="E60">
-        <v>75.68359846782222</v>
+        <v>75.14383461310659</v>
       </c>
       <c r="F60">
         <v>-56.14977365286791</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>1.231925264914924</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-73.89410847931359</v>
+        <v>-75.16011549942</v>
       </c>
       <c r="E61">
-        <v>76.35795900914343</v>
+        <v>75.16011549942</v>
       </c>
       <c r="F61">
         <v>25.03295482912904</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>-1.224439390148525</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-76.34171441882447</v>
+        <v>-75.15195563427487</v>
       </c>
       <c r="E62">
-        <v>73.89283563852743</v>
+        <v>75.15195563427487</v>
       </c>
       <c r="F62">
         <v>-36.11496621943786</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>1.524738697465596</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-73.59009604546331</v>
+        <v>-75.15035207595622</v>
       </c>
       <c r="E63">
-        <v>76.6395734403945</v>
+        <v>75.15035207595622</v>
       </c>
       <c r="F63">
         <v>25.14760746643105</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>-1.367011347227026</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-76.47303542668072</v>
+        <v>-75.14225661586023</v>
       </c>
       <c r="E64">
-        <v>73.73901273222668</v>
+        <v>75.14225661586023</v>
       </c>
       <c r="F64">
         <v>35.36990312386479</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>-0.3847265119267878</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-75.48959953590528</v>
+        <v>-75.14014318053945</v>
       </c>
       <c r="E65">
-        <v>74.72014651205171</v>
+        <v>75.14014318053945</v>
       </c>
       <c r="F65">
         <v>-44.86469280200396</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>1.411553254293814</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-73.69824004790763</v>
+        <v>-75.1453881708219</v>
       </c>
       <c r="E66">
-        <v>76.52134655649525</v>
+        <v>75.1453881708219</v>
       </c>
       <c r="F66">
         <v>16.30797974852811</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-1.042560406427646</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-76.14031339333462</v>
+        <v>-75.13376540262715</v>
       </c>
       <c r="E67">
-        <v>74.05519258047934</v>
+        <v>75.13376540262715</v>
       </c>
       <c r="F67">
         <v>-71.73813030318286</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>2.47766045349908</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-72.65414611324567</v>
+        <v>-75.16924217448587</v>
       </c>
       <c r="E68">
-        <v>77.60946702024384</v>
+        <v>75.16924217448587</v>
       </c>
       <c r="F68">
         <v>-14.4508820646351</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>-0.6200072007351487</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-75.74039590501918</v>
+        <v>-75.15707196724092</v>
       </c>
       <c r="E69">
-        <v>74.50038150354889</v>
+        <v>75.15707196724092</v>
       </c>
       <c r="F69">
         <v>-14.5381997967462</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>0.6758258392999394</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-74.4322559204636</v>
+        <v>-75.14493337951447</v>
       </c>
       <c r="E70">
-        <v>75.78390759906347</v>
+        <v>75.14493337951447</v>
       </c>
       <c r="F70">
         <v>-30.14085918987206</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>0.5642060574925676</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-74.53887338999046</v>
+        <v>-75.13952187874112</v>
       </c>
       <c r="E71">
-        <v>75.6672855049756</v>
+        <v>75.13952187874112</v>
       </c>
       <c r="F71">
         <v>41.54310097720355</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>-1.400628553878526</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-76.50574232193279</v>
+        <v>-75.14198991392544</v>
       </c>
       <c r="E72">
-        <v>73.70448521417575</v>
+        <v>75.14198991392544</v>
       </c>
       <c r="F72">
         <v>-13.76809069572431</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>0.9673360444159655</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-74.12509710609777</v>
+        <v>-75.12965830581015</v>
       </c>
       <c r="E73">
-        <v>76.05976919492969</v>
+        <v>75.12965830581015</v>
       </c>
       <c r="F73">
         <v>5.123067372174717</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.5403619835942195</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-75.61881822662946</v>
+        <v>-75.11576104448235</v>
       </c>
       <c r="E74">
-        <v>74.53809425944101</v>
+        <v>75.11576104448235</v>
       </c>
       <c r="F74">
         <v>0.7871964378054486</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.2105831386556443</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-74.85375992176995</v>
+        <v>-75.10162491214729</v>
       </c>
       <c r="E75">
-        <v>75.27492619908125</v>
+        <v>75.10162491214729</v>
       </c>
       <c r="F75">
         <v>-32.08945232136813</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>0.8217654937227241</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-74.23848936305878</v>
+        <v>-75.09740411195014</v>
       </c>
       <c r="E76">
-        <v>75.88202035050422</v>
+        <v>75.09740411195014</v>
       </c>
       <c r="F76">
         <v>3.188466651184285</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.4306553355274162</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-75.47684322954066</v>
+        <v>-75.08337395502272</v>
       </c>
       <c r="E77">
-        <v>74.61553255848582</v>
+        <v>75.08337395502272</v>
       </c>
       <c r="F77">
         <v>23.77959682583253</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>-0.4996124276982119</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-75.53732618635181</v>
+        <v>-75.07469510658336</v>
       </c>
       <c r="E78">
-        <v>74.53810133095539</v>
+        <v>75.07469510658336</v>
       </c>
       <c r="F78">
         <v>-13.84282356499966</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>0.5945459724461433</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-74.43077619138927</v>
+        <v>-75.06242545056858</v>
       </c>
       <c r="E79">
-        <v>75.61986813628155</v>
+        <v>75.06242545056858</v>
       </c>
       <c r="F79">
         <v>25.64500038479736</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>-0.9699107069204906</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-75.98717131760618</v>
+        <v>-75.05464528241511</v>
       </c>
       <c r="E80">
-        <v>74.04734990376521</v>
+        <v>75.05464528241511</v>
       </c>
       <c r="F80">
         <v>-18.91138684109848</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.9317125042044054</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-74.07455170894946</v>
+        <v>-75.04398540505471</v>
       </c>
       <c r="E81">
-        <v>75.93797671735828</v>
+        <v>75.04398540505471</v>
       </c>
       <c r="F81">
         <v>75.53674854871133</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>-2.582375501573924</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-77.62804863631749</v>
+        <v>-75.08472602041608</v>
       </c>
       <c r="E82">
-        <v>72.46329763316965</v>
+        <v>75.08472602041608</v>
       </c>
       <c r="F82">
         <v>6.125369029544458</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>0.8709542666869319</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-74.16135978738312</v>
+        <v>-75.07099258300882</v>
       </c>
       <c r="E83">
-        <v>75.90326832075699</v>
+        <v>75.07099258300882</v>
       </c>
       <c r="F83">
         <v>-55.69711943617079</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>1.28987802426991</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-73.7590745312944</v>
+        <v>-75.0866900001601</v>
       </c>
       <c r="E84">
-        <v>76.33883057983422</v>
+        <v>75.0866900001601</v>
       </c>
       <c r="F84">
         <v>34.57562737039552</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>-1.51248335436026</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-76.55798961334686</v>
+        <v>-75.08407862434871</v>
       </c>
       <c r="E85">
-        <v>73.53302290462635</v>
+        <v>75.08407862434871</v>
       </c>
       <c r="F85">
         <v>1.542365596436923</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>0.5272173087487172</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-74.5043087511026</v>
+        <v>-75.07002362212975</v>
       </c>
       <c r="E86">
-        <v>75.55874336860003</v>
+        <v>75.07002362212975</v>
       </c>
       <c r="F86">
         <v>-58.13083505784817</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>1.506053284874454</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-73.54441906499086</v>
+        <v>-75.08836009080561</v>
       </c>
       <c r="E87">
-        <v>76.55652563473977</v>
+        <v>75.08836009080561</v>
       </c>
       <c r="F87">
         <v>-27.00371397238115</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>0.2217831059501787</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-74.82241371921745</v>
+        <v>-75.08128188401933</v>
       </c>
       <c r="E88">
-        <v>75.26597993111781</v>
+        <v>75.08128188401933</v>
       </c>
       <c r="F88">
         <v>-52.89384409740592</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>1.423001202463748</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-73.63417889407464</v>
+        <v>-75.09402771441631</v>
       </c>
       <c r="E89">
-        <v>76.48018129900214</v>
+        <v>75.09402771441631</v>
       </c>
       <c r="F89">
         <v>-8.588716079577807</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>-0.2998062552058025</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-75.34389615212103</v>
+        <v>-75.08067565437302</v>
       </c>
       <c r="E90">
-        <v>74.74428364170942</v>
+        <v>75.08067565437302</v>
       </c>
       <c r="F90">
         <v>7.363639370593944</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>-0.08838229653411167</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-75.1189912814275</v>
+        <v>-75.06714406893995</v>
       </c>
       <c r="E91">
-        <v>74.94222668835928</v>
+        <v>75.06714406893995</v>
       </c>
       <c r="F91">
         <v>-38.29146522540725</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>1.123994111915426</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-73.90655380374245</v>
+        <v>-75.06713813158503</v>
       </c>
       <c r="E92">
-        <v>76.1545420275733</v>
+        <v>75.06713813158503</v>
       </c>
       <c r="F92">
         <v>28.46824262485939</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>-1.24721030443777</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-76.27088163225905</v>
+        <v>-75.06085656641768</v>
       </c>
       <c r="E93">
-        <v>73.7764610233835</v>
+        <v>75.06085656641768</v>
       </c>
       <c r="F93">
         <v>168.6558189065053</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>-4.202921613291586</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-79.48829216403084</v>
+        <v>-75.31849621795178</v>
       </c>
       <c r="E94">
-        <v>71.08244893744768</v>
+        <v>75.31849621795178</v>
       </c>
       <c r="F94">
         <v>31.90544723299098</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.6789672740241972</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-74.60466627483375</v>
+        <v>-75.31412429740746</v>
       </c>
       <c r="E95">
-        <v>75.96260082288215</v>
+        <v>75.31412429740746</v>
       </c>
       <c r="F95">
         <v>47.08138561278048</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>-1.541394309149194</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-76.83145144131804</v>
+        <v>-75.32117522562703</v>
       </c>
       <c r="E96">
-        <v>73.74866282301964</v>
+        <v>75.32117522562703</v>
       </c>
       <c r="F96">
         <v>42.91261494810499</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>-0.5144395492267755</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-75.80923243605633</v>
+        <v>-75.32464794684283</v>
       </c>
       <c r="E97">
-        <v>74.78035333760278</v>
+        <v>75.32464794684283</v>
       </c>
       <c r="F97">
         <v>56.76982247121458</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>-1.233882841798014</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-76.54582262909977</v>
+        <v>-75.34126437458161</v>
       </c>
       <c r="E98">
-        <v>74.07805694550373</v>
+        <v>75.34126437458161</v>
       </c>
       <c r="F98">
         <v>-59.67991456678021</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>2.064076095356484</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-73.26630216870177</v>
+        <v>-75.36108770077767</v>
       </c>
       <c r="E99">
-        <v>77.39445435941474</v>
+        <v>75.36108770077767</v>
       </c>
       <c r="F99">
         <v>-1.820584684118387</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.798747270349989</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-76.11521915795863</v>
+        <v>-75.3470632465167</v>
       </c>
       <c r="E100">
-        <v>74.51772461725865</v>
+        <v>75.3470632465167</v>
       </c>
       <c r="F100">
         <v>-12.05030959763747</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.6455761519511052</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-74.65805354583814</v>
+        <v>-75.33439561275023</v>
       </c>
       <c r="E101">
-        <v>75.94920584974035</v>
+        <v>75.33439561275023</v>
       </c>
       <c r="F101">
         <v>-9.536611064997658</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>-0.02162008165534157</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-75.31220176555807</v>
+        <v>-75.32121953514327</v>
       </c>
       <c r="E102">
-        <v>75.26896160224739</v>
+        <v>75.32121953514327</v>
       </c>
       <c r="F102">
         <v>-13.63645943422966</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.3592592973040585</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-74.91905536402832</v>
+        <v>-75.3089538051551</v>
       </c>
       <c r="E103">
-        <v>75.63757395863645</v>
+        <v>75.3089538051551</v>
       </c>
       <c r="F103">
         <v>10.32654981856922</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.4148254762886436</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-75.68006343259715</v>
+        <v>-75.29594164927518</v>
       </c>
       <c r="E104">
-        <v>74.85041248001987</v>
+        <v>75.29594164927518</v>
       </c>
       <c r="F104">
         <v>72.50755620474507</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>-1.675690504870584</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-76.97743439885805</v>
+        <v>-75.33184781441955</v>
       </c>
       <c r="E105">
-        <v>73.62605338911688</v>
+        <v>75.33184781441955</v>
       </c>
       <c r="F105">
         <v>45.29249657877301</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>-0.4303000963238546</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-75.73893735400208</v>
+        <v>-75.33729630461917</v>
       </c>
       <c r="E106">
-        <v>74.87833716135435</v>
+        <v>75.33729630461917</v>
       </c>
       <c r="F106">
         <v>2.102503442218051</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>0.1308001158027156</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-75.16388823202004</v>
+        <v>-75.32332330400162</v>
       </c>
       <c r="E107">
-        <v>75.42548846362547</v>
+        <v>75.32332330400162</v>
       </c>
       <c r="F107">
         <v>-29.24739266487819</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>0.6633259239201585</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-74.62554857303793</v>
+        <v>-75.31742940300752</v>
       </c>
       <c r="E108">
-        <v>75.95220042087824</v>
+        <v>75.31742940300752</v>
       </c>
       <c r="F108">
         <v>15.19621786308818</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>-0.6579521211799317</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-75.93483484566809</v>
+        <v>-75.30561825533425</v>
       </c>
       <c r="E109">
-        <v>74.61893060330823</v>
+        <v>75.30561825533425</v>
       </c>
       <c r="F109">
         <v>25.9311311246833</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.3597139790665942</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-75.62931340415018</v>
+        <v>-75.29799933273985</v>
       </c>
       <c r="E110">
-        <v>74.90988544601699</v>
+        <v>75.29799933273985</v>
       </c>
       <c r="F110">
         <v>-9.429332220119591</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.3845054030505928</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-74.87189310500943</v>
+        <v>-75.2848552033057</v>
       </c>
       <c r="E111">
-        <v>75.64090391111063</v>
+        <v>75.2848552033057</v>
       </c>
       <c r="F111">
         <v>-42.71273323015521</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>0.8816610778397802</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-74.37836635370402</v>
+        <v>-75.28816159588082</v>
       </c>
       <c r="E112">
-        <v>76.14168850938358</v>
+        <v>75.28816159588082</v>
       </c>
       <c r="F112">
         <v>-10.34954586401682</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>-0.1215174838986925</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-75.36876942024051</v>
+        <v>-75.27520155594959</v>
       </c>
       <c r="E113">
-        <v>75.12573445244314</v>
+        <v>75.27520155594959</v>
       </c>
       <c r="F113">
         <v>27.02978358736914</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>-0.6074282333161651</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-75.84770330180964</v>
+        <v>-75.26815312956815</v>
       </c>
       <c r="E114">
-        <v>74.6328468351773</v>
+        <v>75.26815312956815</v>
       </c>
       <c r="F114">
         <v>31.97374535410944</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.5153745414937489</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-75.75174262700165</v>
+        <v>-75.26387071996822</v>
       </c>
       <c r="E115">
-        <v>74.72099354401414</v>
+        <v>75.26387071996822</v>
       </c>
       <c r="F115">
         <v>-24.20517333823966</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.8075470371615516</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-74.42018563214775</v>
+        <v>-75.25546109255629</v>
       </c>
       <c r="E116">
-        <v>76.03527970647086</v>
+        <v>75.25546109255629</v>
       </c>
       <c r="F116">
         <v>-15.91692214541069</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>0.04404375657371951</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-75.17239365739266</v>
+        <v>-75.24391041577515</v>
       </c>
       <c r="E117">
-        <v>75.26048117054009</v>
+        <v>75.24391041577515</v>
       </c>
       <c r="F117">
         <v>-49.11109894089662</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>1.164879582723163</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-74.0604746887704</v>
+        <v>-75.25278287455679</v>
       </c>
       <c r="E118">
-        <v>76.39023385421672</v>
+        <v>75.25278287455679</v>
       </c>
       <c r="F118">
         <v>54.0742201676423</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>-1.839902899469983</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-77.07778816024788</v>
+        <v>-75.26648836419875</v>
       </c>
       <c r="E119">
-        <v>73.39798236130792</v>
+        <v>75.26648836419875</v>
       </c>
       <c r="F119">
         <v>-50.0940576485533</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>2.084486950222313</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-73.16145081421817</v>
+        <v>-75.27626447517795</v>
       </c>
       <c r="E120">
-        <v>77.3304247146628</v>
+        <v>75.27626447517795</v>
       </c>
       <c r="F120">
         <v>-37.52739469179573</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>0.07120931765228988</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-75.17561034794636</v>
+        <v>-75.27563424981268</v>
       </c>
       <c r="E121">
-        <v>75.31802898325094</v>
+        <v>75.27563424981268</v>
       </c>
       <c r="F121">
         <v>33.90933538405534</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>-0.8457773385357346</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-76.08951607478429</v>
+        <v>-75.27256448677116</v>
       </c>
       <c r="E122">
-        <v>74.39796139771281</v>
+        <v>75.27256448677116</v>
       </c>
       <c r="F122">
         <v>3.979568328738026</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>0.2669018818628941</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-74.96311426894893</v>
+        <v>-75.25879393880825</v>
       </c>
       <c r="E123">
-        <v>75.49691803267471</v>
+        <v>75.25879393880825</v>
       </c>
       <c r="F123">
         <v>1.806736696637756</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>-0.1622709153658569</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-75.37842366389106</v>
+        <v>-75.24491240585691</v>
       </c>
       <c r="E124">
-        <v>75.05388183315935</v>
+        <v>75.24491240585691</v>
       </c>
       <c r="F124">
         <v>-22.86393367423898</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>0.6333303836165758</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-74.57378762764637</v>
+        <v>-75.23594002510458</v>
       </c>
       <c r="E125">
-        <v>75.84044839487953</v>
+        <v>75.23594002510458</v>
       </c>
       <c r="F125">
         <v>76.09614161934246</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>-2.189606989586398</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-77.43652623169186</v>
+        <v>-75.27664518107353</v>
       </c>
       <c r="E126">
-        <v>73.05731225251907</v>
+        <v>75.27664518107353</v>
       </c>
       <c r="F126">
         <v>-22.72189980029822</v>
